--- a/data/trans_orig/P1415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DCAED57-30A6-4A39-A31E-CD9FA7A3FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB611DE3-9869-46F7-A7CC-14A7BBAC21F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2680B5A1-FF77-4B64-BA3B-23194D73EA0C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B56054EE-2128-4095-9313-89285374BB81}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="171">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,19 +94,19 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>1,62%</t>
@@ -115,7 +115,7 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,25 +124,25 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>97,77%</t>
+    <t>97,69%</t>
   </si>
   <si>
     <t>98,86%</t>
@@ -169,13 +169,13 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -184,16 +184,16 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>97,98%</t>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -205,16 +205,16 @@
     <t>98,72%</t>
   </si>
   <si>
-    <t>99,58%</t>
+    <t>99,57%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -232,43 +232,46 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>97,2%</t>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -277,271 +280,223 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>2,22%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>98,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
   </si>
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1007,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7680A72-B727-4985-9E3D-1AF7859A8732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A565F-C442-4A36-A8FE-58733F37AE29}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1466,7 +1421,7 @@
         <v>3450</v>
       </c>
       <c r="N10" s="7">
-        <v>3676946</v>
+        <v>3676945</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1517,7 +1472,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1612,10 +1567,10 @@
         <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1624,10 +1579,10 @@
         <v>14949</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>69</v>
@@ -1681,7 +1636,7 @@
         <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,10 +1755,10 @@
         <v>56970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>80</v>
@@ -1836,7 +1791,7 @@
         <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1806,13 @@
         <v>3362812</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>3257</v>
@@ -1878,16 +1833,16 @@
         <v>6409</v>
       </c>
       <c r="N18" s="7">
-        <v>6876702</v>
+        <v>6876703</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,7 +1884,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1943,7 +1898,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D7FDFE-EF92-4022-A9C8-B90F08C5F219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DB3398-DD6E-4FD9-AAFE-2EC1BBC3A9EB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,7 +1934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2092,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2107,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2137,13 +2092,13 @@
         <v>8961</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -2152,10 +2107,10 @@
         <v>20005</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>103</v>
@@ -2167,13 +2122,13 @@
         <v>28966</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2143,13 @@
         <v>745386</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H6" s="7">
         <v>875</v>
@@ -2203,13 +2158,13 @@
         <v>974655</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="M6" s="7">
         <v>1627</v>
@@ -2218,13 +2173,13 @@
         <v>1720041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2298,13 @@
         <v>20817</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -2358,13 +2313,13 @@
         <v>31494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
@@ -2373,13 +2328,13 @@
         <v>52310</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2349,13 @@
         <v>2055568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>1877</v>
@@ -2409,13 +2364,13 @@
         <v>1956806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>3809</v>
@@ -2424,13 +2379,13 @@
         <v>4012375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2519,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2534,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2504,13 @@
         <v>5683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2564,13 +2519,13 @@
         <v>4944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2579,13 +2534,13 @@
         <v>10627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2555,13 @@
         <v>541203</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>521</v>
@@ -2615,13 +2570,13 @@
         <v>544196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -2630,13 +2585,13 @@
         <v>1085399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,10 +2713,10 @@
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2770,13 +2725,13 @@
         <v>56443</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -2785,13 +2740,13 @@
         <v>91903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,10 +2764,10 @@
         <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H18" s="7">
         <v>3273</v>
@@ -2821,13 +2776,13 @@
         <v>3475657</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
         <v>6453</v>
@@ -2836,13 +2791,13 @@
         <v>6817815</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,7 +2853,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB48365-E7EC-4755-B177-963AE83E731B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50FD3FB-8435-45DE-8FFE-A3A6455C0078}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2934,7 +2889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3041,10 +2996,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3056,10 +3011,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3071,10 +3026,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3098,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3113,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3149,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3164,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3247,10 +3202,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3262,10 +3217,10 @@
         <v>2249520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3277,10 +3232,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3319,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3334,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3385,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,10 +3408,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3468,10 +3423,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3483,10 +3438,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3510,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3525,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3540,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3576,7 +3531,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3591,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,10 +3614,10 @@
         <v>3376695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3674,10 +3629,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3689,10 +3644,10 @@
         <v>7176055</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3731,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3746,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3797,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,7 +3808,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB611DE3-9869-46F7-A7CC-14A7BBAC21F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DD8DC4-1369-4330-B14C-B0E3791B9930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B56054EE-2128-4095-9313-89285374BB81}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B716051C-B39F-4EDF-9C23-441F75C2301F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="178">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,28 +94,28 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,28 +124,28 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,16 +166,16 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,43%</t>
+    <t>0,4%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -184,19 +184,19 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,23%</t>
@@ -205,16 +205,16 @@
     <t>98,72%</t>
   </si>
   <si>
-    <t>99,57%</t>
+    <t>99,6%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -232,19 +232,22 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>0,85%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>2,73%</t>
@@ -253,16 +256,16 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>98,41%</t>
@@ -271,7 +274,7 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>99,15%</t>
+    <t>99,16%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -280,223 +283,241 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>1,26%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>98,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
   </si>
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
@@ -962,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A565F-C442-4A36-A8FE-58733F37AE29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9285C79-2F4B-41E4-B073-02DE1127EB52}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1421,7 +1442,7 @@
         <v>3450</v>
       </c>
       <c r="N10" s="7">
-        <v>3676945</v>
+        <v>3676946</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1472,7 +1493,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1567,10 +1588,10 @@
         <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1579,13 +1600,13 @@
         <v>14949</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1621,13 @@
         <v>472248</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -1618,10 +1639,10 @@
         <v>30</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>838</v>
@@ -1630,13 +1651,13 @@
         <v>924863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1776,13 @@
         <v>56970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -1770,10 +1791,10 @@
         <v>37129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>83</v>
@@ -1809,10 +1830,10 @@
         <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>3257</v>
@@ -1827,22 +1848,22 @@
         <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="M18" s="7">
         <v>6409</v>
       </c>
       <c r="N18" s="7">
-        <v>6876703</v>
+        <v>6876702</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1905,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1898,7 +1919,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DB3398-DD6E-4FD9-AAFE-2EC1BBC3A9EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07D4F39-0B2C-4666-B0F6-FF64C24023E5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1934,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2047,22 +2068,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2092,13 +2113,13 @@
         <v>8961</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -2107,13 +2128,13 @@
         <v>20005</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -2122,7 +2143,7 @@
         <v>28966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>104</v>
@@ -2158,13 +2179,13 @@
         <v>974655</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M6" s="7">
         <v>1627</v>
@@ -2173,13 +2194,13 @@
         <v>1720041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,10 +2319,10 @@
         <v>20817</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>116</v>
@@ -2316,10 +2337,10 @@
         <v>117</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
@@ -2328,13 +2349,13 @@
         <v>52310</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2370,13 @@
         <v>2055568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
         <v>1877</v>
@@ -2364,13 +2385,13 @@
         <v>1956806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>3809</v>
@@ -2379,13 +2400,13 @@
         <v>4012375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2474,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2489,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2525,13 @@
         <v>5683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2519,13 +2540,13 @@
         <v>4944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2534,13 +2555,13 @@
         <v>10627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2576,13 @@
         <v>541203</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>521</v>
@@ -2570,13 +2591,13 @@
         <v>544196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>1017</v>
@@ -2585,13 +2606,13 @@
         <v>1085399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2731,13 @@
         <v>35461</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2725,13 +2746,13 @@
         <v>56443</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -2740,13 +2761,13 @@
         <v>91903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,10 +2785,10 @@
         <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H18" s="7">
         <v>3273</v>
@@ -2776,13 +2797,13 @@
         <v>3475657</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
         <v>6453</v>
@@ -2791,13 +2812,13 @@
         <v>6817815</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,7 +2874,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50FD3FB-8435-45DE-8FFE-A3A6455C0078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BDA189-FFCE-4A7E-A5EC-0C810473E165}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2889,7 +2910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2996,10 +3017,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3011,10 +3032,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3026,10 +3047,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3053,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3068,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3104,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3119,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3202,10 +3223,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3214,13 +3235,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3232,10 +3253,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3274,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3289,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3346,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3340,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3388,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3408,10 +3429,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3423,10 +3444,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3438,10 +3459,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3465,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3480,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3495,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3531,7 +3552,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3546,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3632,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3629,10 +3650,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3641,13 +3662,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3686,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3701,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3752,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3785,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3794,7 +3815,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3808,7 +3829,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB50C1C9-09CE-4606-B9E8-1668F76D8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{605BA64F-91FC-4AD7-BBCC-23B5C1C6270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76526C38-0BF0-4442-A183-D142C0B8937A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{30BEAE5B-FD0B-48AF-8E11-3AC86F28455B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -895,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0005AFA5-DE7D-44EB-8841-41A000C156D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E2D1C3-7E39-47B2-811B-BBD4908E17E0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1082,7 +1082,7 @@
         <v>1231</v>
       </c>
       <c r="I5" s="7">
-        <v>1320210</v>
+        <v>1320211</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1133,7 +1133,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1252,7 +1252,7 @@
         <v>3450</v>
       </c>
       <c r="N8" s="7">
-        <v>3676946</v>
+        <v>3676945</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1303,7 +1303,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1407,7 +1407,7 @@
         <v>838</v>
       </c>
       <c r="N11" s="7">
-        <v>924863</v>
+        <v>924864</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>63</v>
@@ -1458,7 +1458,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1646,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF21E4BE-47A6-430B-BEEE-2E987212960E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9673298-29CD-4714-B9B3-DD3A693F0A2E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2158,7 +2158,7 @@
         <v>1017</v>
       </c>
       <c r="N11" s="7">
-        <v>1085399</v>
+        <v>1085400</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>132</v>
@@ -2209,7 +2209,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
